--- a/design/テーブル定義.xlsx
+++ b/design/テーブル定義.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>User</t>
     <phoneticPr fontId="1"/>
@@ -51,19 +51,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>socialId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bit(1)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -101,14 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OＡuth認証系</t>
     <rPh sb="5" eb="7">
       <t>ニンショウ</t>
@@ -204,20 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>post_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体重登録日</t>
-    <rPh sb="0" eb="2">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>トウロクビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -275,10 +245,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -288,10 +254,6 @@
   </si>
   <si>
     <t>comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -323,10 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>post_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>start_time</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -355,14 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>schedule_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -376,16 +326,6 @@
   </si>
   <si>
     <t>fk(schedule.id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿時間</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -496,15 +436,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>admin:1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bit(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>nonnull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重登録日</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トウロクビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin:true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Table　definition</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -580,15 +553,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -908,542 +881,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="3" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="C63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/design/テーブル定義.xlsx
+++ b/design/テーブル定義.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t>User</t>
     <phoneticPr fontId="1"/>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>socialId</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -77,29 +73,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ソーシャルＩＤかどうか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>access_token</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>access_token_secret</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OＡuth認証系</t>
-    <rPh sb="5" eb="7">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -445,10 +419,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>string</t>
@@ -551,15 +521,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,16 +849,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -904,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -918,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -926,49 +893,49 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -979,73 +946,67 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
@@ -1055,90 +1016,88 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -1149,214 +1108,212 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="B48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -1367,23 +1324,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
@@ -1393,91 +1354,60 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D15:D16"/>
+  <mergeCells count="4">
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/テーブル定義.xlsx
+++ b/design/テーブル定義.xlsx
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
@@ -448,6 +444,10 @@
   </si>
   <si>
     <t>Table　definition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_digest</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -837,7 +837,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -849,7 +849,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -885,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -893,49 +893,49 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -946,16 +946,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -966,16 +966,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -986,26 +986,26 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -1016,19 +1016,19 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1036,39 +1036,39 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1080,22 +1080,22 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1108,35 +1108,35 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1144,21 +1144,21 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
@@ -1170,20 +1170,20 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1194,59 +1194,59 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1254,21 +1254,21 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -1298,20 +1298,20 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1324,26 +1324,26 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -1354,14 +1354,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -1372,14 +1372,14 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -1390,16 +1390,16 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
